--- a/File Tugas/TUGAS ATW.xlsx
+++ b/File Tugas/TUGAS ATW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\UAS_ATW\File Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -128,10 +128,10 @@
     <t>https://www.instagram.com/p/CKJij9mAfdY/?igshid=w37495aoi6r3</t>
   </si>
   <si>
-    <t>https://www.instagram.com/p/CKMTXdnA6Z8/?igshid=ggccyig8nad6</t>
-  </si>
-  <si>
     <t>https://github.com/endanglestari/proyek4/commit/fc6f0b4ffa2688e8cf8081e0286b0bb94e462808</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CKMXwP0gMVm/?igshid=1ltaly6p9wkqw</t>
   </si>
 </sst>
 </file>
@@ -634,7 +634,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,10 +879,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
